--- a/new.xlsx
+++ b/new.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python class1-40\10th Class\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6343B9-5BDF-41BC-BAC3-CE8B03757E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,17 +83,380 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +467,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB7A8484-5B2E-467D-84AB-8090E3EA333A}" name="Table2" displayName="Table2" ref="A2:I16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A2:I16" xr:uid="{EB7A8484-5B2E-467D-84AB-8090E3EA333A}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A554DBE8-26A1-42EE-934F-F9EFA2C72DFC}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{34314F73-6637-4035-8A5B-273935EA1AAF}" name="Column2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3CDBB683-3C80-404F-BF68-800AD175990E}" name="Column3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{9CEF745E-9354-4B81-ADFE-A6C03A73F0AD}" name="Column4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E759781C-C83A-4398-99A2-CE3418F88183}" name="Column5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0286F5AB-CF8D-4D8E-9CBE-B1E50AB2605C}" name="Column6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{0642E60D-1B46-434B-B98C-991E6D97BCAD}" name="Column7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{629EBA04-BD77-412B-93E4-899EFAF8E5FA}" name="Column8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{E7354870-B600-4A60-A6E8-063C254BA52C}" name="Column9" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +749,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>